--- a/rank_analysis/2-1-analysis.xlsx
+++ b/rank_analysis/2-1-analysis.xlsx
@@ -383,12 +383,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>11.1</t>
+          <t>3.2</t>
         </is>
       </c>
     </row>
@@ -400,12 +400,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>19.8</t>
+          <t>16.65</t>
         </is>
       </c>
     </row>
@@ -417,12 +417,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>50.28</t>
+          <t>40.58</t>
         </is>
       </c>
     </row>
@@ -439,7 +439,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>195.62</t>
+          <t>59.37</t>
         </is>
       </c>
     </row>
@@ -451,12 +451,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>729.548</t>
+          <t>145.528</t>
         </is>
       </c>
     </row>
@@ -468,12 +468,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>668.029</t>
+          <t>134.589</t>
         </is>
       </c>
     </row>
